--- a/Mifos Automation Excels/Client/773-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/773-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment-Makerepayment1.xlsx
@@ -541,7 +541,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -577,25 +577,25 @@
         <v>10000</v>
       </c>
       <c r="B2" s="6">
-        <v>738.49</v>
+        <v>739.77</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
         <v>0</v>
       </c>
       <c r="E2" s="7">
-        <v>9261.51</v>
+        <v>9260.23</v>
       </c>
       <c r="F2" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>675.05</v>
+        <v>672.51</v>
       </c>
       <c r="B3" s="6">
-        <v>150</v>
+        <v>147.94999999999999</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>525.04999999999995</v>
+        <v>524.55999999999995</v>
       </c>
       <c r="F3" s="6">
-        <v>50</v>
+        <v>46.03</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -772,13 +772,13 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6">
-        <v>788.49</v>
+        <v>785.8</v>
       </c>
       <c r="G3" s="7">
-        <v>9211.51</v>
+        <v>9214.2000000000007</v>
       </c>
       <c r="H3" s="6">
-        <v>100</v>
+        <v>101.92</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
@@ -787,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L3" s="6">
-        <v>838.49</v>
+        <v>841.69</v>
       </c>
       <c r="M3" s="6">
         <v>0</v>
       </c>
       <c r="N3" s="6">
-        <v>838.49</v>
+        <v>841.69</v>
       </c>
       <c r="P3" s="6">
-        <v>50</v>
+        <v>46.03</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="7">
-        <v>9211.51</v>
+        <v>9214.2000000000007</v>
       </c>
       <c r="H4" s="6">
-        <v>50</v>
+        <v>46.03</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="6">
-        <v>50</v>
+        <v>46.03</v>
       </c>
       <c r="L4" s="6">
-        <v>50</v>
+        <v>46.03</v>
       </c>
       <c r="M4" s="6">
         <v>0</v>
@@ -860,13 +860,13 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>838.49</v>
+        <v>841.69</v>
       </c>
       <c r="G5" s="7">
-        <v>8373.02</v>
+        <v>8372.51</v>
       </c>
       <c r="H5" s="6">
-        <v>50</v>
+        <v>46.03</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -903,13 +903,13 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>795.87</v>
+        <v>793.34</v>
       </c>
       <c r="G6" s="7">
-        <v>7577.15</v>
+        <v>7579.17</v>
       </c>
       <c r="H6" s="6">
-        <v>92.62</v>
+        <v>94.38</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -946,13 +946,13 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>812.72</v>
+        <v>812.97</v>
       </c>
       <c r="G7" s="7">
-        <v>6764.43</v>
+        <v>6766.2</v>
       </c>
       <c r="H7" s="6">
-        <v>75.77</v>
+        <v>74.75</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -989,13 +989,13 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>820.85</v>
+        <v>818.76</v>
       </c>
       <c r="G8" s="7">
-        <v>5943.58</v>
+        <v>5947.44</v>
       </c>
       <c r="H8" s="6">
-        <v>67.64</v>
+        <v>68.959999999999994</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1032,13 +1032,13 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
-        <v>829.05</v>
+        <v>829.06</v>
       </c>
       <c r="G9" s="7">
-        <v>5114.53</v>
+        <v>5118.38</v>
       </c>
       <c r="H9" s="6">
-        <v>59.44</v>
+        <v>58.66</v>
       </c>
       <c r="I9" s="6">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1075,13 +1075,13 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6">
-        <v>837.34</v>
+        <v>835.55</v>
       </c>
       <c r="G10" s="7">
-        <v>4277.1899999999996</v>
+        <v>4282.83</v>
       </c>
       <c r="H10" s="6">
-        <v>51.15</v>
+        <v>52.17</v>
       </c>
       <c r="I10" s="6">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1118,13 +1118,13 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6">
-        <v>845.72</v>
+        <v>844.07</v>
       </c>
       <c r="G11" s="7">
-        <v>3431.47</v>
+        <v>3438.76</v>
       </c>
       <c r="H11" s="6">
-        <v>42.77</v>
+        <v>43.65</v>
       </c>
       <c r="I11" s="6">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1161,13 +1161,13 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6">
-        <v>854.18</v>
+        <v>853.8</v>
       </c>
       <c r="G12" s="7">
-        <v>2577.29</v>
+        <v>2584.96</v>
       </c>
       <c r="H12" s="6">
-        <v>34.31</v>
+        <v>33.92</v>
       </c>
       <c r="I12" s="6">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L12" s="6">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1204,13 +1204,13 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6">
-        <v>862.72</v>
+        <v>861.37</v>
       </c>
       <c r="G13" s="7">
-        <v>1714.57</v>
+        <v>1723.59</v>
       </c>
       <c r="H13" s="6">
-        <v>25.77</v>
+        <v>26.35</v>
       </c>
       <c r="I13" s="6">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1247,13 +1247,13 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6">
-        <v>871.34</v>
+        <v>870.72</v>
       </c>
       <c r="G14" s="6">
-        <v>843.23</v>
+        <v>852.87</v>
       </c>
       <c r="H14" s="6">
-        <v>17.149999999999999</v>
+        <v>17</v>
       </c>
       <c r="I14" s="6">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1290,13 +1290,13 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6">
-        <v>843.23</v>
+        <v>852.87</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" s="6">
-        <v>8.43</v>
+        <v>8.69</v>
       </c>
       <c r="I15" s="6">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="6">
-        <v>851.66</v>
+        <v>861.56</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6">
-        <v>851.66</v>
+        <v>861.56</v>
       </c>
     </row>
   </sheetData>
@@ -1327,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1342,7 +1342,7 @@
     <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
@@ -1374,9 +1374,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>184</v>
+        <v>3078</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>29</v>
@@ -1388,13 +1388,13 @@
         <v>30</v>
       </c>
       <c r="E2" s="6">
-        <v>888.49</v>
+        <v>887.72</v>
       </c>
       <c r="F2" s="6">
-        <v>738.49</v>
+        <v>739.77</v>
       </c>
       <c r="G2" s="6">
-        <v>150</v>
+        <v>147.94999999999999</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
@@ -1403,12 +1403,14 @@
         <v>0</v>
       </c>
       <c r="J2" s="7">
-        <v>9261.51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9260.23</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>117</v>
+        <v>3076</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>29</v>
@@ -1437,6 +1439,8 @@
       <c r="J3" s="5">
         <v>10000</v>
       </c>
+      <c r="K3"/>
+      <c r="L3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/773-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/773-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment-Makerepayment1.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
-    <sheet name="Summary" sheetId="13" r:id="rId2"/>
+    <sheet name="Summary" sheetId="20" r:id="rId2"/>
     <sheet name="Repayment Schedule" sheetId="17" r:id="rId3"/>
-    <sheet name="Transactions" sheetId="18" r:id="rId4"/>
+    <sheet name="Transactions" sheetId="19" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -22,104 +22,104 @@
     <t>makerepayment</t>
   </si>
   <si>
+    <t>clickonmakerepayment</t>
+  </si>
+  <si>
+    <t>repaymenttransactiondate</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Waived</t>
+  </si>
+  <si>
+    <t>Written Off</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>Over Due</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Paid Date</t>
+  </si>
+  <si>
+    <t>Heading</t>
+  </si>
+  <si>
+    <t>Principal Due</t>
+  </si>
+  <si>
+    <t>Balance of Loan</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>Penalties</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
+    <t>In Advance</t>
+  </si>
+  <si>
+    <t>Late</t>
+  </si>
+  <si>
+    <t>Entry ID</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Transaction Date</t>
+  </si>
+  <si>
+    <t>Transaction Type</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Loan Balance</t>
+  </si>
+  <si>
+    <t>Head Office</t>
+  </si>
+  <si>
     <t>Repayment</t>
   </si>
   <si>
     <t>Disbursement</t>
-  </si>
-  <si>
-    <t>clickonmakerepayment</t>
-  </si>
-  <si>
-    <t>repaymenttransactiondate</t>
-  </si>
-  <si>
-    <t>Original</t>
-  </si>
-  <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>Waived</t>
-  </si>
-  <si>
-    <t>Written Off</t>
-  </si>
-  <si>
-    <t>Outstanding</t>
-  </si>
-  <si>
-    <t>Over Due</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Paid Date</t>
-  </si>
-  <si>
-    <t>Heading</t>
-  </si>
-  <si>
-    <t>Principal Due</t>
-  </si>
-  <si>
-    <t>Balance of Loan</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>Fees</t>
-  </si>
-  <si>
-    <t>Penalties</t>
-  </si>
-  <si>
-    <t>Due</t>
-  </si>
-  <si>
-    <t>In Advance</t>
-  </si>
-  <si>
-    <t>Late</t>
-  </si>
-  <si>
-    <t>Entry ID</t>
-  </si>
-  <si>
-    <t>Office</t>
-  </si>
-  <si>
-    <t>Transaction Date</t>
-  </si>
-  <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Principal</t>
-  </si>
-  <si>
-    <t>Loan Balance</t>
-  </si>
-  <si>
-    <t>Head Office</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -139,6 +139,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -179,34 +184,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -216,6 +221,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,7 +544,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -532,7 +555,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -540,9 +563,9 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
         <v>42050</v>
       </c>
     </row>
@@ -553,118 +576,156 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>10000</v>
       </c>
-      <c r="B2" s="3">
-        <v>833.33</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>9166.67</v>
-      </c>
-      <c r="F2" s="3">
-        <v>833.33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>650</v>
-      </c>
-      <c r="B3" s="3">
-        <v>100</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>550</v>
-      </c>
-      <c r="F3" s="3">
-        <v>91.67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
+      <c r="B2" s="8">
+        <v>739.77</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>9260.23</v>
+      </c>
+      <c r="F2" s="8">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>672.51</v>
+      </c>
+      <c r="B3" s="8">
+        <v>147.94999999999999</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>524.55999999999995</v>
+      </c>
+      <c r="F3" s="8">
+        <v>46.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -673,10 +734,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -684,130 +745,110 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>23</v>
-      </c>
       <c r="O1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>31</v>
-      </c>
-      <c r="C2" s="9">
-        <v>42036</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8">
-        <v>785.8</v>
-      </c>
-      <c r="G2" s="10">
-        <v>9214.2000000000007</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="16">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="8"/>
       <c r="I2" s="8">
         <v>0</v>
       </c>
-      <c r="J2" s="8">
-        <v>0</v>
-      </c>
+      <c r="J2" s="8"/>
       <c r="K2" s="8">
-        <v>785.8</v>
+        <v>0</v>
       </c>
       <c r="L2" s="8">
-        <v>637.85</v>
-      </c>
-      <c r="M2" s="8">
-        <v>0</v>
-      </c>
-      <c r="N2" s="8">
-        <v>637.85</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="8">
-        <v>147.94999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>14</v>
-      </c>
-      <c r="C3" s="9">
-        <v>42050</v>
-      </c>
-      <c r="D3" s="9">
-        <v>42050</v>
-      </c>
-      <c r="E3" s="3">
+        <v>31</v>
+      </c>
+      <c r="C3" s="16">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
+        <v>785.8</v>
+      </c>
+      <c r="G3" s="9">
         <v>9214.2000000000007</v>
       </c>
       <c r="H3" s="8">
-        <v>147.94999999999999</v>
+        <v>101.92</v>
       </c>
       <c r="I3" s="8">
         <v>0</v>
@@ -816,45 +857,45 @@
         <v>0</v>
       </c>
       <c r="K3" s="8">
-        <v>147.94999999999999</v>
+        <v>887.72</v>
       </c>
       <c r="L3" s="8">
-        <v>147.94999999999999</v>
+        <v>841.69</v>
       </c>
       <c r="M3" s="8">
         <v>0</v>
       </c>
       <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
+        <v>841.69</v>
+      </c>
+      <c r="O3" s="4">
         <v>0</v>
       </c>
       <c r="P3" s="8">
-        <v>0</v>
+        <v>46.03</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="8">
         <v>14</v>
       </c>
-      <c r="C4" s="9">
-        <v>42064</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="C4" s="16">
+        <v>42050</v>
+      </c>
+      <c r="D4" s="16">
+        <v>42050</v>
+      </c>
+      <c r="E4" s="2">
         <v>0</v>
       </c>
       <c r="F4" s="8">
-        <v>841.69</v>
-      </c>
-      <c r="G4" s="10">
-        <v>8372.51</v>
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>9214.2000000000007</v>
       </c>
       <c r="H4" s="8">
         <v>46.03</v>
@@ -866,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="8">
-        <v>887.72</v>
+        <v>46.03</v>
       </c>
       <c r="L4" s="8">
-        <v>0</v>
+        <v>46.03</v>
       </c>
       <c r="M4" s="8">
         <v>0</v>
@@ -877,132 +918,693 @@
       <c r="N4" s="8">
         <v>0</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="4">
         <v>0</v>
       </c>
       <c r="P4" s="8">
-        <v>887.72</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>14</v>
+      </c>
+      <c r="C5" s="16">
+        <v>42064</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>841.69</v>
+      </c>
+      <c r="G5" s="9">
+        <v>8372.51</v>
+      </c>
+      <c r="H5" s="8">
+        <v>46.03</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>887.72</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <v>31</v>
+      </c>
+      <c r="C6" s="16">
+        <v>42095</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>793.34</v>
+      </c>
+      <c r="G6" s="9">
+        <v>7579.17</v>
+      </c>
+      <c r="H6" s="8">
+        <v>94.38</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>887.72</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>30</v>
+      </c>
+      <c r="C7" s="16">
+        <v>42125</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>812.97</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6766.2</v>
+      </c>
+      <c r="H7" s="8">
+        <v>74.75</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>887.72</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>31</v>
+      </c>
+      <c r="C8" s="16">
+        <v>42156</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>818.76</v>
+      </c>
+      <c r="G8" s="9">
+        <v>5947.44</v>
+      </c>
+      <c r="H8" s="8">
+        <v>68.959999999999994</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>887.72</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>30</v>
+      </c>
+      <c r="C9" s="16">
+        <v>42186</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>829.06</v>
+      </c>
+      <c r="G9" s="9">
+        <v>5118.38</v>
+      </c>
+      <c r="H9" s="8">
+        <v>58.66</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>887.72</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>31</v>
+      </c>
+      <c r="C10" s="16">
+        <v>42217</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>835.55</v>
+      </c>
+      <c r="G10" s="9">
+        <v>4282.83</v>
+      </c>
+      <c r="H10" s="8">
+        <v>52.17</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>887.72</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>31</v>
+      </c>
+      <c r="C11" s="16">
+        <v>42248</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>844.07</v>
+      </c>
+      <c r="G11" s="9">
+        <v>3438.76</v>
+      </c>
+      <c r="H11" s="8">
+        <v>43.65</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>887.72</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8">
+        <v>30</v>
+      </c>
+      <c r="C12" s="16">
+        <v>42278</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>853.8</v>
+      </c>
+      <c r="G12" s="9">
+        <v>2584.96</v>
+      </c>
+      <c r="H12" s="8">
+        <v>33.92</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>887.72</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8">
+        <v>31</v>
+      </c>
+      <c r="C13" s="16">
+        <v>42309</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>861.37</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1723.59</v>
+      </c>
+      <c r="H13" s="8">
+        <v>26.35</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>887.72</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8">
+        <v>30</v>
+      </c>
+      <c r="C14" s="16">
+        <v>42339</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>870.72</v>
+      </c>
+      <c r="G14" s="8">
+        <v>852.87</v>
+      </c>
+      <c r="H14" s="8">
+        <v>17</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <v>887.72</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8">
+        <v>31</v>
+      </c>
+      <c r="C15" s="16">
+        <v>42370</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>852.87</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>8.69</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <v>861.56</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
+        <v>861.56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="P16" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C16:E16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="14" t="s">
+      <c r="C2" s="16">
+        <v>42050</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
-        <v>2622</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="E2" s="8">
+        <v>887.72</v>
+      </c>
+      <c r="F2" s="8">
+        <v>739.77</v>
+      </c>
+      <c r="G2" s="8">
+        <v>147.94999999999999</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>9260.23</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>22</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="16">
+        <v>42005</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="5">
-        <v>42005</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>933.33</v>
-      </c>
-      <c r="F2" s="3">
-        <v>833.33</v>
-      </c>
-      <c r="G2" s="3">
-        <v>100</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>9166.67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
-        <v>2621</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="5">
-        <v>41974</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="E3" s="7">
         <v>10000</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
         <v>10000</v>
       </c>
+      <c r="K3"/>
+      <c r="L3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K6"/>
+      <c r="L6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mifos Automation Excels/Client/773-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/773-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-Late Repayment-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -118,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -212,6 +217,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -259,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,9 +300,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,6 +352,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -657,10 +699,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -677,12 +719,13 @@
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -722,17 +765,18 @@
       <c r="M1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="10">
@@ -758,8 +802,9 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -795,14 +840,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
         <v>841.69</v>
       </c>
-      <c r="P3" s="6">
+      <c r="Q3" s="6">
         <v>46.03</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -840,14 +886,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -883,14 +930,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -926,14 +974,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -969,14 +1018,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1012,14 +1062,15 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1055,14 +1106,15 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1098,14 +1150,15 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1141,14 +1194,15 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1184,14 +1238,15 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1227,14 +1282,15 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1270,14 +1326,15 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -1313,10 +1370,11 @@
       <c r="M15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
+      <c r="N15" s="6"/>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
         <v>861.56</v>
       </c>
     </row>
@@ -1329,7 +1387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
